--- a/TRES_DE_MAIO.xlsx
+++ b/TRES_DE_MAIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C226A2-0B17-439F-B02A-2A4BF4243849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8292E9D-9BD7-4A68-842E-D30FEBF1E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1276,7 +1276,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{5B569410-EEF4-4DFB-834E-F5C36D215B61}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8E999321-A5E3-4DB6-98CE-55E7C80E4217}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,10 +1306,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27ABC031-E075-4949-A2F1-0CA12CFFD719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3763C12D-6712-4A1B-9D85-B96299F97D65}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F853912C-AF74-44C7-9CCA-6AF8CD3F680B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E03EDD-F322-4C3D-8346-1D7167B8EB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1410,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB40460-77CB-4156-BC41-BDC1ED7698BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3AA3F6-84E0-46C1-8010-738D0DACA030}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2123BC79-F9ED-A448-48E9-22814A22C1C0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AC4FA4-B0EF-9196-F70A-43773674C8A8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1478,7 +1478,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D7315B-CF9A-8BE7-613A-7375C9B9D678}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D257C12-FB32-22BA-14C0-E67B28C9999B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1497,7 +1497,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E4B98C-9B12-973C-41B9-59F4038866B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4494F10B-B65C-8422-A734-194ABC0A102D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1528,7 +1528,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DB07F9-AA94-ACDF-333A-2551531C8C88}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2112EF6C-3BA1-31C1-8E98-E9F819303DBF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1559,7 +1559,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5657EDC-FEEB-E4AA-F7CB-035C53AE0D05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B92FB7-44D0-8379-6968-9810FA3E2141}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1602,7 +1602,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BFCB4A3-5F3A-4168-8A26-AD45B1B26D30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F5614B-EFB4-4362-B83D-FD78A001A65F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1640,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060046D3-6386-49C7-B725-AAD38FF76665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D12B40A-ABE6-40CC-B681-B542EC269305}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1683,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F349F96-D90E-49DF-B92F-9643D26D7342}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265F531A-AFAD-4E08-8CAB-DF242ADA793C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F00AE8D-94D8-4CDC-9C43-D8DFF48B861F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C0EE-4F3E-4BD2-9557-CAC531B2FB3C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/TRES_DE_MAIO.xlsx
+++ b/TRES_DE_MAIO.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8292E9D-9BD7-4A68-842E-D30FEBF1E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BED3B04-0F39-4842-8990-569F62871D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="321">
   <si>
     <t>COMARCA</t>
   </si>
@@ -990,12 +989,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,27 +1249,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{8E999321-A5E3-4DB6-98CE-55E7C80E4217}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A5F6F0C8-714B-4031-9B43-9B56A977EFE9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,10 +1284,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3763C12D-6712-4A1B-9D85-B96299F97D65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B35E843-2096-44B6-9AC4-52AF8E49D860}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1325,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E03EDD-F322-4C3D-8346-1D7167B8EB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5D9BAD-71DB-4A60-9345-4F409D78DF01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1388,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3AA3F6-84E0-46C1-8010-738D0DACA030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0066CA-8622-49C6-AD58-BEC6576842E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1407,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AC4FA4-B0EF-9196-F70A-43773674C8A8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99238B7D-F3D9-1EB1-8238-32E14482B4A0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1478,7 +1456,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D257C12-FB32-22BA-14C0-E67B28C9999B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA758D8-C9BA-B930-9902-F1BD834EC769}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1497,7 +1475,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4494F10B-B65C-8422-A734-194ABC0A102D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B054B5-7043-2C64-AAA6-64878BA9F468}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1528,7 +1506,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2112EF6C-3BA1-31C1-8E98-E9F819303DBF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560BC4F2-F96A-1FD1-6EA2-21F73A09BEB7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1559,7 +1537,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B92FB7-44D0-8379-6968-9810FA3E2141}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44969751-10B5-4630-E294-17776C9EB553}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1602,7 +1580,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F5614B-EFB4-4362-B83D-FD78A001A65F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2607B951-2454-45DB-AEE5-BE2345C7AFD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1618,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D12B40A-ABE6-40CC-B681-B542EC269305}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30FD880-076E-439F-B9E9-3BC3C3CA9BE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1661,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265F531A-AFAD-4E08-8CAB-DF242ADA793C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0E7785-3ED1-4777-8916-2675BCB3C95F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658C0EE-4F3E-4BD2-9557-CAC531B2FB3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4780E22-0D74-4FE7-9BD1-0B9AF90A1B9E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2008,98 +1986,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5802,52 +5780,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="35">
-        <v>11</v>
-      </c>
-      <c r="C2" s="33">
-        <v>7.2741700833223123E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/TRES_DE_MAIO.xlsx
+++ b/TRES_DE_MAIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BED3B04-0F39-4842-8990-569F62871D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86DBDE0E-D932-4058-BF26-E061AFDC2CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,7 +1254,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A5F6F0C8-714B-4031-9B43-9B56A977EFE9}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C06A9C0F-CD60-4E73-BF95-41D81EFA5698}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1284,10 +1284,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B35E843-2096-44B6-9AC4-52AF8E49D860}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41578642-1A92-4DF2-B24A-22034A869828}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5D9BAD-71DB-4A60-9345-4F409D78DF01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C3FB9B-2107-4775-86F1-BE3979F53540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1388,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0066CA-8622-49C6-AD58-BEC6576842E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D6C34C-0875-4DE2-A30B-7B89E055BD40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1407,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99238B7D-F3D9-1EB1-8238-32E14482B4A0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D2BB45-A742-BB01-27C8-B9A584DA9EA3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1456,7 +1456,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA758D8-C9BA-B930-9902-F1BD834EC769}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7F1112-EFF0-E88C-4CB5-E60944374D71}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1475,7 +1475,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B054B5-7043-2C64-AAA6-64878BA9F468}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CE827B-9097-FE09-3641-FB9E40BBE14A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1506,7 +1506,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560BC4F2-F96A-1FD1-6EA2-21F73A09BEB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BFB617-231C-0C01-8E04-EE48C83BB0BA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1537,7 +1537,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44969751-10B5-4630-E294-17776C9EB553}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4418E130-69AD-515D-EA96-F95B8FBFD303}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1580,7 +1580,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2607B951-2454-45DB-AEE5-BE2345C7AFD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE2357F-1980-47B2-9EFB-675C13D94C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1618,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30FD880-076E-439F-B9E9-3BC3C3CA9BE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D1E802-D8BA-475E-836D-E9DCD437541F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,50 +1643,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0E7785-3ED1-4777-8916-2675BCB3C95F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1974,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4780E22-0D74-4FE7-9BD1-0B9AF90A1B9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A530DCB-BDD2-4ECA-BE56-E8CF926C5D6D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
